--- a/manufacture/PurchaseList.xlsx
+++ b/manufacture/PurchaseList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\n-blocks\n-dap\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5A951D3-B09B-4091-A96E-22F4886AD1D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{261A2B59-1474-423D-A746-F0EA66FCE9BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="141">
   <si>
     <t>Item #</t>
   </si>
@@ -63,7 +63,7 @@
     <t>n-DAP</t>
   </si>
   <si>
-    <t>16:31</t>
+    <t>17:43</t>
   </si>
   <si>
     <t>20</t>
@@ -135,9 +135,6 @@
     <t>Y1</t>
   </si>
   <si>
-    <t>B1</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -202,9 +199,6 @@
   </si>
   <si>
     <t>12MHz</t>
-  </si>
-  <si>
-    <t>N-5</t>
   </si>
   <si>
     <t>Footprint</t>
@@ -1206,7 +1200,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F1048576"/>
@@ -1240,46 +1234,46 @@
         <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>116</v>
-      </c>
       <c r="K1" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>141</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Q1" s="5" t="s">
         <v>8</v>
@@ -1297,31 +1291,31 @@
         <v>14</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G2" s="51" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H2" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>115</v>
-      </c>
       <c r="J2" s="10">
-        <v>1903646</v>
+        <v>1903578</v>
       </c>
       <c r="K2" s="46" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L2" s="42">
         <v>1</v>
@@ -1350,38 +1344,38 @@
     </row>
     <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <f t="shared" ref="A3:A23" si="0">ROW(A3) - ROW($A$1)</f>
+        <f t="shared" ref="A3:A22" si="0">ROW(A3) - ROW($A$1)</f>
         <v>2</v>
       </c>
       <c r="B3" s="33" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F3" s="51" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G3" s="51" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H3" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="J3" s="10">
         <v>5890</v>
       </c>
       <c r="K3" s="46" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L3" s="42">
         <v>1</v>
@@ -1393,18 +1387,18 @@
         <v>200</v>
       </c>
       <c r="O3" s="47">
-        <f t="shared" ref="O3:O23" si="1">ROUNDUP(N3*L3,0)</f>
+        <f t="shared" ref="O3:O22" si="1">ROUNDUP(N3*L3,0)</f>
         <v>200</v>
       </c>
       <c r="P3" s="30">
         <v>0.16994999999999999</v>
       </c>
       <c r="Q3" s="30">
-        <f t="shared" ref="Q3:Q23" si="2">P3*O3</f>
+        <f t="shared" ref="Q3:Q22" si="2">P3*O3</f>
         <v>33.989999999999995</v>
       </c>
       <c r="R3" s="48">
-        <f t="shared" ref="R3:R23" si="3">ROW(R3) - ROW($A$1)</f>
+        <f t="shared" ref="R3:R22" si="3">ROW(R3) - ROW($A$1)</f>
         <v>2</v>
       </c>
     </row>
@@ -1417,31 +1411,31 @@
         <v>16</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F4" s="51" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G4" s="51" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H4" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="J4" s="10">
         <v>99945</v>
       </c>
       <c r="K4" s="46" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L4" s="42">
         <v>1</v>
@@ -1477,31 +1471,31 @@
         <v>17</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F5" s="51" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G5" s="51" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H5" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="J5" s="10">
         <v>237124</v>
       </c>
       <c r="K5" s="46" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L5" s="42">
         <v>1</v>
@@ -1537,29 +1531,29 @@
         <v>18</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="51" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G6" s="51" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H6" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="J6" s="10">
         <v>68800</v>
       </c>
       <c r="K6" s="46" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L6" s="42">
         <v>1</v>
@@ -1595,29 +1589,29 @@
         <v>19</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="51" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G7" s="51" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H7" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="I7" s="9" t="s">
-        <v>115</v>
-      </c>
       <c r="J7" s="10">
-        <v>43738</v>
+        <v>43490</v>
       </c>
       <c r="K7" s="46" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L7" s="42">
         <v>1</v>
@@ -1653,29 +1647,29 @@
         <v>20</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="51" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G8" s="51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H8" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="J8" s="10">
         <v>58555</v>
       </c>
       <c r="K8" s="46" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L8" s="42">
         <v>1</v>
@@ -1711,31 +1705,31 @@
         <v>21</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F9" s="51" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G9" s="51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="I9" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="J9" s="10">
         <v>115642</v>
       </c>
       <c r="K9" s="46" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L9" s="42">
         <v>1.3</v>
@@ -1771,29 +1765,29 @@
         <v>22</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="51" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G10" s="51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H10" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="I10" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="J10" s="10">
         <v>22003</v>
       </c>
       <c r="K10" s="46" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L10" s="42">
         <v>1</v>
@@ -1829,31 +1823,31 @@
         <v>23</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F11" s="51" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G11" s="51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H11" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="I11" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="J11" s="10">
         <v>97994</v>
       </c>
       <c r="K11" s="46" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L11" s="42">
         <v>1</v>
@@ -1889,31 +1883,31 @@
         <v>24</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F12" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G12" s="51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H12" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="I12" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="J12" s="10">
         <v>1924459</v>
       </c>
       <c r="K12" s="46" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L12" s="42">
         <v>1</v>
@@ -1949,31 +1943,31 @@
         <v>25</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F13" s="51" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G13" s="51" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H13" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="I13" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="J13" s="10">
         <v>23930</v>
       </c>
       <c r="K13" s="46" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L13" s="42">
         <v>1</v>
@@ -2009,31 +2003,31 @@
         <v>26</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F14" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G14" s="51" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H14" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="I14" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="J14" s="10">
         <v>231704</v>
       </c>
       <c r="K14" s="46" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L14" s="42">
         <v>1</v>
@@ -2069,31 +2063,31 @@
         <v>27</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F15" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G15" s="51" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H15" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="I15" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="J15" s="10">
         <v>54524</v>
       </c>
       <c r="K15" s="46" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L15" s="42">
         <v>1</v>
@@ -2129,31 +2123,31 @@
         <v>28</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F16" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G16" s="51" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H16" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="I16" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="J16" s="10">
         <v>70706</v>
       </c>
       <c r="K16" s="46" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L16" s="42">
         <v>1</v>
@@ -2189,31 +2183,31 @@
         <v>29</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F17" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G17" s="51" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H17" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="I17" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="I17" s="9" t="s">
-        <v>115</v>
-      </c>
       <c r="J17" s="10">
-        <v>4399591</v>
+        <v>4399293</v>
       </c>
       <c r="K17" s="46" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L17" s="42">
         <v>1</v>
@@ -2249,31 +2243,31 @@
         <v>30</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F18" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G18" s="51" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H18" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="I18" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="J18" s="10">
         <v>19360</v>
       </c>
       <c r="K18" s="46" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L18" s="42">
         <v>1</v>
@@ -2309,31 +2303,31 @@
         <v>31</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F19" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G19" s="51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H19" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="I19" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="J19" s="10">
         <v>15015</v>
       </c>
       <c r="K19" s="46" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L19" s="42">
         <v>1</v>
@@ -2345,14 +2339,14 @@
         <v>200</v>
       </c>
       <c r="O19" s="47">
-        <f t="shared" ref="O19:O23" si="18">ROUNDUP(N19*L19,0)</f>
+        <f t="shared" ref="O19:O22" si="18">ROUNDUP(N19*L19,0)</f>
         <v>200</v>
       </c>
       <c r="P19" s="30">
         <v>0.48826999999999998</v>
       </c>
       <c r="Q19" s="30">
-        <f t="shared" ref="Q19:Q23" si="19">P19*O19</f>
+        <f t="shared" ref="Q19:Q22" si="19">P19*O19</f>
         <v>97.653999999999996</v>
       </c>
       <c r="R19" s="48">
@@ -2369,29 +2363,29 @@
         <v>32</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="51" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G20" s="51" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H20" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="I20" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="J20" s="10">
         <v>843</v>
       </c>
       <c r="K20" s="46" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L20" s="42">
         <v>1</v>
@@ -2427,29 +2421,29 @@
         <v>33</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="51" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G21" s="51" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H21" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="I21" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="J21" s="10">
         <v>27461</v>
       </c>
       <c r="K21" s="46" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L21" s="42">
         <v>1</v>
@@ -2485,31 +2479,31 @@
         <v>34</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F22" s="51" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G22" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="H22" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="H22" s="52" t="s">
+      <c r="I22" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="J22" s="10">
         <v>959</v>
       </c>
       <c r="K22" s="46" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L22" s="42">
         <v>1</v>
@@ -2536,124 +2530,84 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="10">
-        <v>1</v>
-      </c>
-      <c r="N23" s="44"/>
-      <c r="O23" s="47">
-        <f t="shared" ref="O23" si="22">ROUNDUP(N23*L23,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30">
-        <f t="shared" ref="Q23" si="23">P23*O23</f>
-        <v>0</v>
-      </c>
-      <c r="R23" s="48">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
+    <row r="23" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="17"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
     </row>
-    <row r="24" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
+    <row r="24" spans="1:18" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="16"/>
+      <c r="I24" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24" s="14"/>
+      <c r="K24" s="34">
+        <f ca="1">NOW()</f>
+        <v>43843.738721527778</v>
+      </c>
+      <c r="L24" s="40"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="36">
+        <f>SUM(Q2:Q22)</f>
+        <v>752.05489999999998</v>
+      </c>
+      <c r="R24" s="50">
+        <f>Q24/N25</f>
+        <v>37.602744999999999</v>
+      </c>
     </row>
-    <row r="25" spans="1:18" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="16"/>
-      <c r="I25" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="J25" s="14"/>
-      <c r="K25" s="34">
-        <f ca="1">NOW()</f>
-        <v>43843.688709374997</v>
-      </c>
-      <c r="L25" s="40"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q25" s="36">
-        <f>SUM(Q2:Q23)</f>
-        <v>752.05489999999998</v>
-      </c>
-      <c r="R25" s="50">
-        <f>Q25/N26</f>
-        <v>37.602744999999999</v>
+    <row r="25" spans="1:18" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K25" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="L25" s="41"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="O25" s="39"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="R25" s="43" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K26" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="L26" s="41"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="O26" s="39"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="R26" s="43" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="N27" s="49"/>
+    <row r="26" spans="1:18" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="N26" s="49"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/manufacture/PurchaseList.xlsx
+++ b/manufacture/PurchaseList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\n-blocks\n-dap\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{261A2B59-1474-423D-A746-F0EA66FCE9BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD0FDED8-F30A-4328-A0F5-7F410E4AA455}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="144">
   <si>
     <t>Item #</t>
   </si>
@@ -63,7 +63,7 @@
     <t>n-DAP</t>
   </si>
   <si>
-    <t>17:43</t>
+    <t>11:49</t>
   </si>
   <si>
     <t>20</t>
@@ -204,7 +204,7 @@
     <t>Footprint</t>
   </si>
   <si>
-    <t>0603_CAP_SMALL</t>
+    <t>0402_CAP</t>
   </si>
   <si>
     <t>0603_LED_RED</t>
@@ -225,7 +225,10 @@
     <t>SOT323/SC70-3_SMALL</t>
   </si>
   <si>
-    <t>0603_res_SMALL</t>
+    <t>0402_res</t>
+  </si>
+  <si>
+    <t>0402_RES</t>
   </si>
   <si>
     <t>BUTTON_4.7x3.5mm</t>
@@ -264,10 +267,13 @@
     <t>Manufacturer 1</t>
   </si>
   <si>
-    <t>Kyocera AVX</t>
-  </si>
-  <si>
-    <t>Murata</t>
+    <t>Wurth Electronics</t>
+  </si>
+  <si>
+    <t>Walsin Technologies</t>
+  </si>
+  <si>
+    <t>Taiyo Yuden</t>
   </si>
   <si>
     <t>Osram Opto</t>
@@ -285,12 +291,15 @@
     <t>Diodes</t>
   </si>
   <si>
+    <t>Vishay</t>
+  </si>
+  <si>
+    <t>Vishay Semiconductors</t>
+  </si>
+  <si>
     <t>Panasonic</t>
   </si>
   <si>
-    <t>Susumu</t>
-  </si>
-  <si>
     <t>NXP Semiconductors</t>
   </si>
   <si>
@@ -303,16 +312,16 @@
     <t>Manufacturer Part Number 1</t>
   </si>
   <si>
-    <t>06035C104KAT2A</t>
-  </si>
-  <si>
-    <t>06031A180GAT2A</t>
-  </si>
-  <si>
-    <t>06035A330JAT2A/4K</t>
-  </si>
-  <si>
-    <t>GCM188R71C105KA64D</t>
+    <t>885012105016</t>
+  </si>
+  <si>
+    <t>0402N180F500CT</t>
+  </si>
+  <si>
+    <t>885012005058</t>
+  </si>
+  <si>
+    <t>JMK105BJ105KP-F</t>
   </si>
   <si>
     <t>LSQ976-NR-1</t>
@@ -330,25 +339,25 @@
     <t>BSS84W-7-F</t>
   </si>
   <si>
-    <t>ERJ-3EKF1002V</t>
-  </si>
-  <si>
-    <t>RR0816P-681-D</t>
-  </si>
-  <si>
-    <t>ERJ3EKF4700V</t>
-  </si>
-  <si>
-    <t>ERJ-3EKF33R0V</t>
-  </si>
-  <si>
-    <t>ERJ-3EKF1501V</t>
-  </si>
-  <si>
-    <t>ERJ-3GEY0R00V</t>
-  </si>
-  <si>
-    <t>ERJ-3GEYJ183V</t>
+    <t>CRCW040210K0FKEDC</t>
+  </si>
+  <si>
+    <t>CRCW0402680RFKEDC</t>
+  </si>
+  <si>
+    <t>CRCW0402470RFKEDC</t>
+  </si>
+  <si>
+    <t>CRCW040233R0FKEDC</t>
+  </si>
+  <si>
+    <t>CRCW04021K50FKEDC</t>
+  </si>
+  <si>
+    <t>CRCW04020000Z0EDC</t>
+  </si>
+  <si>
+    <t>CRCW040218K0FKED</t>
   </si>
   <si>
     <t>LPC11U35FHI33/501,</t>
@@ -378,16 +387,16 @@
     <t>Supplier Part Number 1</t>
   </si>
   <si>
-    <t>581-06035C104KAT2A</t>
-  </si>
-  <si>
-    <t>581-06031A180GAT2A</t>
-  </si>
-  <si>
-    <t>581-06035A330J</t>
-  </si>
-  <si>
-    <t>81-GCM188R71C105K64D</t>
+    <t>710-885012105016</t>
+  </si>
+  <si>
+    <t>791-0402N180F500CT</t>
+  </si>
+  <si>
+    <t>710-885012005058</t>
+  </si>
+  <si>
+    <t>963-JMK105BJ105KP-F</t>
   </si>
   <si>
     <t>720-LSQ976-NR-1</t>
@@ -408,25 +417,25 @@
     <t>621-BSS84W-F</t>
   </si>
   <si>
-    <t>667-ERJ-3EKF1002V</t>
-  </si>
-  <si>
-    <t>754-RR0816P-681D</t>
-  </si>
-  <si>
-    <t>667-ERJ-3EKF4700V</t>
-  </si>
-  <si>
-    <t>667-ERJ-3EKF33R0V</t>
-  </si>
-  <si>
-    <t>667-ERJ-3EKF1501V</t>
-  </si>
-  <si>
-    <t>667-ERJ-3GEY0R00V</t>
-  </si>
-  <si>
-    <t>667-ERJ-3GEYJ183V</t>
+    <t>71-CRCW040210K0FKEDC</t>
+  </si>
+  <si>
+    <t>71-CRCW0402680RFKEDC</t>
+  </si>
+  <si>
+    <t>71-CRCW0402470RFKEDC</t>
+  </si>
+  <si>
+    <t>71-CRCW040233R0FKEDC</t>
+  </si>
+  <si>
+    <t>71-CRCW04021K50FKEDC</t>
+  </si>
+  <si>
+    <t>71-CRCW04020000Z0EDC</t>
+  </si>
+  <si>
+    <t>71-CRCW0402-18K-E3</t>
   </si>
   <si>
     <t>667-EVQ-P2202M</t>
@@ -1240,40 +1249,40 @@
         <v>57</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q1" s="5" t="s">
         <v>8</v>
@@ -1297,25 +1306,25 @@
         <v>58</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G2" s="51" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H2" s="52" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J2" s="10">
-        <v>1903578</v>
+        <v>40996</v>
       </c>
       <c r="K2" s="46" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="L2" s="42">
         <v>1</v>
@@ -1331,18 +1340,18 @@
         <v>300</v>
       </c>
       <c r="P2" s="30">
-        <v>4.2259999999999999E-2</v>
+        <v>1.8849999999999999E-2</v>
       </c>
       <c r="Q2" s="30">
         <f>P2*O2</f>
-        <v>12.677999999999999</v>
+        <v>5.6549999999999994</v>
       </c>
       <c r="R2" s="48">
         <f>ROW(R2) - ROW($A$1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f t="shared" ref="A3:A22" si="0">ROW(A3) - ROW($A$1)</f>
         <v>2</v>
@@ -1357,25 +1366,25 @@
         <v>58</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F3" s="51" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G3" s="51" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H3" s="52" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J3" s="10">
-        <v>5890</v>
+        <v>5900</v>
       </c>
       <c r="K3" s="46" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L3" s="42">
         <v>1</v>
@@ -1391,11 +1400,11 @@
         <v>200</v>
       </c>
       <c r="P3" s="30">
-        <v>0.16994999999999999</v>
+        <v>3.5909999999999997E-2</v>
       </c>
       <c r="Q3" s="30">
         <f t="shared" ref="Q3:Q22" si="2">P3*O3</f>
-        <v>33.989999999999995</v>
+        <v>7.1819999999999995</v>
       </c>
       <c r="R3" s="48">
         <f t="shared" ref="R3:R22" si="3">ROW(R3) - ROW($A$1)</f>
@@ -1417,25 +1426,25 @@
         <v>58</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F4" s="51" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G4" s="51" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H4" s="52" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J4" s="10">
-        <v>99945</v>
+        <v>34052</v>
       </c>
       <c r="K4" s="46" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="L4" s="42">
         <v>1</v>
@@ -1451,11 +1460,11 @@
         <v>200</v>
       </c>
       <c r="P4" s="30">
-        <v>2.7879999999999999E-2</v>
+        <v>1.257E-2</v>
       </c>
       <c r="Q4" s="30">
         <f>P4*O4</f>
-        <v>5.5759999999999996</v>
+        <v>2.5139999999999998</v>
       </c>
       <c r="R4" s="48">
         <f>ROW(R4) - ROW($A$1)</f>
@@ -1477,25 +1486,25 @@
         <v>58</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F5" s="51" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G5" s="51" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H5" s="52" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J5" s="10">
-        <v>237124</v>
+        <v>25442</v>
       </c>
       <c r="K5" s="46" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L5" s="42">
         <v>1</v>
@@ -1511,11 +1520,11 @@
         <v>200</v>
       </c>
       <c r="P5" s="30">
-        <v>8.9020000000000002E-2</v>
+        <v>2.8729999999999999E-2</v>
       </c>
       <c r="Q5" s="30">
         <f t="shared" ref="Q5" si="5">P5*O5</f>
-        <v>17.804000000000002</v>
+        <v>5.7459999999999996</v>
       </c>
       <c r="R5" s="48">
         <f t="shared" si="3"/>
@@ -1538,22 +1547,22 @@
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="51" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G6" s="51" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H6" s="52" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J6" s="10">
-        <v>68800</v>
+        <v>68575</v>
       </c>
       <c r="K6" s="46" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L6" s="42">
         <v>1</v>
@@ -1569,11 +1578,11 @@
         <v>100</v>
       </c>
       <c r="P6" s="30">
-        <v>6.8339999999999998E-2</v>
+        <v>6.8220000000000003E-2</v>
       </c>
       <c r="Q6" s="30">
         <f>P6*O6</f>
-        <v>6.8339999999999996</v>
+        <v>6.8220000000000001</v>
       </c>
       <c r="R6" s="48">
         <f>ROW(R6) - ROW($A$1)</f>
@@ -1596,22 +1605,22 @@
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="51" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G7" s="51" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H7" s="52" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J7" s="10">
         <v>43490</v>
       </c>
       <c r="K7" s="46" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L7" s="42">
         <v>1</v>
@@ -1627,11 +1636,11 @@
         <v>100</v>
       </c>
       <c r="P7" s="30">
-        <v>5.0360000000000002E-2</v>
+        <v>5.0270000000000002E-2</v>
       </c>
       <c r="Q7" s="30">
         <f t="shared" ref="Q7:Q9" si="7">P7*O7</f>
-        <v>5.0360000000000005</v>
+        <v>5.0270000000000001</v>
       </c>
       <c r="R7" s="48">
         <f t="shared" si="3"/>
@@ -1654,22 +1663,22 @@
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="51" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G8" s="51" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H8" s="52" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J8" s="10">
-        <v>58555</v>
+        <v>58553</v>
       </c>
       <c r="K8" s="46" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="L8" s="42">
         <v>1</v>
@@ -1685,11 +1694,11 @@
         <v>100</v>
       </c>
       <c r="P8" s="30">
-        <v>0.10879999999999999</v>
+        <v>0.10861999999999999</v>
       </c>
       <c r="Q8" s="30">
         <f>P8*O8</f>
-        <v>10.879999999999999</v>
+        <v>10.862</v>
       </c>
       <c r="R8" s="48">
         <f>ROW(R8) - ROW($A$1)</f>
@@ -1711,25 +1720,25 @@
         <v>62</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F9" s="51" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G9" s="51" t="s">
         <v>43</v>
       </c>
       <c r="H9" s="52" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J9" s="10">
         <v>115642</v>
       </c>
       <c r="K9" s="46" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="L9" s="42">
         <v>1.3</v>
@@ -1745,11 +1754,11 @@
         <v>130</v>
       </c>
       <c r="P9" s="30">
-        <v>0.18612999999999999</v>
+        <v>0.18582000000000001</v>
       </c>
       <c r="Q9" s="30">
         <f t="shared" ref="Q9" si="9">P9*O9</f>
-        <v>24.196899999999999</v>
+        <v>24.156600000000001</v>
       </c>
       <c r="R9" s="48">
         <f t="shared" si="3"/>
@@ -1772,22 +1781,22 @@
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="51" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G10" s="51" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H10" s="52" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J10" s="10">
-        <v>22003</v>
+        <v>21568</v>
       </c>
       <c r="K10" s="46" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L10" s="42">
         <v>1</v>
@@ -1803,11 +1812,11 @@
         <v>100</v>
       </c>
       <c r="P10" s="30">
-        <v>0.61414999999999997</v>
+        <v>0.61312</v>
       </c>
       <c r="Q10" s="30">
         <f>P10*O10</f>
-        <v>61.414999999999999</v>
+        <v>61.311999999999998</v>
       </c>
       <c r="R10" s="48">
         <f>ROW(R10) - ROW($A$1)</f>
@@ -1829,25 +1838,25 @@
         <v>64</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F11" s="51" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G11" s="51" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H11" s="52" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J11" s="10">
-        <v>97994</v>
+        <v>97989</v>
       </c>
       <c r="K11" s="46" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L11" s="42">
         <v>1</v>
@@ -1863,11 +1872,11 @@
         <v>100</v>
       </c>
       <c r="P11" s="30">
-        <v>0.10251</v>
+        <v>0.10234</v>
       </c>
       <c r="Q11" s="30">
         <f t="shared" ref="Q11:Q17" si="11">P11*O11</f>
-        <v>10.251000000000001</v>
+        <v>10.234</v>
       </c>
       <c r="R11" s="48">
         <f t="shared" si="3"/>
@@ -1889,25 +1898,25 @@
         <v>65</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F12" s="51" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G12" s="51" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H12" s="52" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J12" s="10">
-        <v>1924459</v>
+        <v>1868158</v>
       </c>
       <c r="K12" s="46" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L12" s="42">
         <v>1</v>
@@ -1923,11 +1932,11 @@
         <v>1000</v>
       </c>
       <c r="P12" s="30">
-        <v>9.8899999999999995E-3</v>
+        <v>4.4900000000000001E-3</v>
       </c>
       <c r="Q12" s="30">
         <f>P12*O12</f>
-        <v>9.8899999999999988</v>
+        <v>4.49</v>
       </c>
       <c r="R12" s="48">
         <f>ROW(R12) - ROW($A$1)</f>
@@ -1949,25 +1958,25 @@
         <v>65</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F13" s="51" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G13" s="51" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H13" s="52" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J13" s="10">
-        <v>23930</v>
+        <v>69395</v>
       </c>
       <c r="K13" s="46" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L13" s="42">
         <v>1</v>
@@ -1983,18 +1992,18 @@
         <v>100</v>
       </c>
       <c r="P13" s="30">
-        <v>3.1469999999999998E-2</v>
+        <v>1.167E-2</v>
       </c>
       <c r="Q13" s="30">
         <f t="shared" ref="Q13" si="13">P13*O13</f>
-        <v>3.1469999999999998</v>
+        <v>1.167</v>
       </c>
       <c r="R13" s="48">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>ROW(A14) - ROW($A$1)</f>
         <v>13</v>
@@ -2006,28 +2015,28 @@
         <v>48</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F14" s="51" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G14" s="51" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H14" s="52" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J14" s="10">
-        <v>231704</v>
+        <v>84527</v>
       </c>
       <c r="K14" s="46" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L14" s="42">
         <v>1</v>
@@ -2043,18 +2052,18 @@
         <v>200</v>
       </c>
       <c r="P14" s="30">
-        <v>1.7979999999999999E-2</v>
+        <v>1.167E-2</v>
       </c>
       <c r="Q14" s="30">
         <f>P14*O14</f>
-        <v>3.5960000000000001</v>
+        <v>2.3340000000000001</v>
       </c>
       <c r="R14" s="48">
         <f>ROW(R14) - ROW($A$1)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2069,25 +2078,25 @@
         <v>65</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F15" s="51" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G15" s="51" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H15" s="52" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J15" s="10">
-        <v>54524</v>
+        <v>135537</v>
       </c>
       <c r="K15" s="46" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="L15" s="42">
         <v>1</v>
@@ -2103,11 +2112,11 @@
         <v>200</v>
       </c>
       <c r="P15" s="30">
-        <v>2.3380000000000001E-2</v>
+        <v>1.167E-2</v>
       </c>
       <c r="Q15" s="30">
         <f t="shared" ref="Q15:Q17" si="15">P15*O15</f>
-        <v>4.6760000000000002</v>
+        <v>2.3340000000000001</v>
       </c>
       <c r="R15" s="48">
         <f t="shared" si="3"/>
@@ -2129,25 +2138,25 @@
         <v>65</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F16" s="51" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G16" s="51" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H16" s="52" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J16" s="10">
-        <v>70706</v>
+        <v>99644</v>
       </c>
       <c r="K16" s="46" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L16" s="42">
         <v>1</v>
@@ -2163,11 +2172,11 @@
         <v>100</v>
       </c>
       <c r="P16" s="30">
-        <v>2.1579999999999998E-2</v>
+        <v>1.167E-2</v>
       </c>
       <c r="Q16" s="30">
         <f>P16*O16</f>
-        <v>2.1579999999999999</v>
+        <v>1.167</v>
       </c>
       <c r="R16" s="48">
         <f>ROW(R16) - ROW($A$1)</f>
@@ -2189,25 +2198,25 @@
         <v>65</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F17" s="51" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G17" s="51" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H17" s="52" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J17" s="10">
-        <v>4399293</v>
+        <v>900334</v>
       </c>
       <c r="K17" s="46" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="L17" s="42">
         <v>1</v>
@@ -2223,11 +2232,11 @@
         <v>100</v>
       </c>
       <c r="P17" s="30">
-        <v>8.9899999999999997E-3</v>
+        <v>5.3899999999999998E-3</v>
       </c>
       <c r="Q17" s="30">
         <f t="shared" ref="Q17" si="17">P17*O17</f>
-        <v>0.89900000000000002</v>
+        <v>0.53900000000000003</v>
       </c>
       <c r="R17" s="48">
         <f t="shared" si="3"/>
@@ -2246,28 +2255,28 @@
         <v>52</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F18" s="51" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G18" s="51" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H18" s="52" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J18" s="10">
-        <v>19360</v>
+        <v>18062</v>
       </c>
       <c r="K18" s="46" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L18" s="42">
         <v>1</v>
@@ -2283,11 +2292,11 @@
         <v>100</v>
       </c>
       <c r="P18" s="30">
-        <v>1.529E-2</v>
+        <v>2.4240000000000001E-2</v>
       </c>
       <c r="Q18" s="30">
         <f>P18*O18</f>
-        <v>1.5289999999999999</v>
+        <v>2.4239999999999999</v>
       </c>
       <c r="R18" s="48">
         <f>ROW(R18) - ROW($A$1)</f>
@@ -2306,28 +2315,28 @@
         <v>53</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F19" s="51" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G19" s="51" t="s">
         <v>53</v>
       </c>
       <c r="H19" s="52" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J19" s="10">
         <v>15015</v>
       </c>
       <c r="K19" s="46" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L19" s="42">
         <v>1</v>
@@ -2343,11 +2352,11 @@
         <v>200</v>
       </c>
       <c r="P19" s="30">
-        <v>0.48826999999999998</v>
+        <v>0.48743999999999998</v>
       </c>
       <c r="Q19" s="30">
         <f t="shared" ref="Q19:Q22" si="19">P19*O19</f>
-        <v>97.653999999999996</v>
+        <v>97.488</v>
       </c>
       <c r="R19" s="48">
         <f t="shared" si="3"/>
@@ -2366,26 +2375,26 @@
         <v>54</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="51" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G20" s="51" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H20" s="52" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J20" s="10">
         <v>843</v>
       </c>
       <c r="K20" s="46" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="L20" s="42">
         <v>1</v>
@@ -2401,11 +2410,11 @@
         <v>100</v>
       </c>
       <c r="P20" s="30">
-        <v>2.99</v>
+        <v>2.98</v>
       </c>
       <c r="Q20" s="30">
         <f>P20*O20</f>
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="R20" s="48">
         <f>ROW(R20) - ROW($A$1)</f>
@@ -2424,26 +2433,26 @@
         <v>55</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="51" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G21" s="51" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H21" s="52" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J21" s="10">
         <v>27461</v>
       </c>
       <c r="K21" s="46" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L21" s="42">
         <v>1</v>
@@ -2459,11 +2468,11 @@
         <v>100</v>
       </c>
       <c r="P21" s="30">
-        <v>0.38845000000000002</v>
+        <v>0.38779999999999998</v>
       </c>
       <c r="Q21" s="30">
         <f t="shared" ref="Q21" si="21">P21*O21</f>
-        <v>38.844999999999999</v>
+        <v>38.78</v>
       </c>
       <c r="R21" s="48">
         <f t="shared" si="3"/>
@@ -2482,28 +2491,28 @@
         <v>56</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F22" s="51" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G22" s="51" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H22" s="52" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J22" s="10">
-        <v>959</v>
+        <v>930</v>
       </c>
       <c r="K22" s="46" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L22" s="42">
         <v>1</v>
@@ -2519,11 +2528,11 @@
         <v>100</v>
       </c>
       <c r="P22" s="30">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="Q22" s="30">
         <f>P22*O22</f>
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R22" s="48">
         <f>ROW(R22) - ROW($A$1)</f>
@@ -2570,7 +2579,7 @@
       <c r="J24" s="14"/>
       <c r="K24" s="34">
         <f ca="1">NOW()</f>
-        <v>43843.738721527778</v>
+        <v>43844.492883564817</v>
       </c>
       <c r="L24" s="40"/>
       <c r="M24" s="15"/>
@@ -2581,11 +2590,11 @@
       </c>
       <c r="Q24" s="36">
         <f>SUM(Q2:Q22)</f>
-        <v>752.05489999999998</v>
+        <v>689.23360000000002</v>
       </c>
       <c r="R24" s="50">
         <f>Q24/N25</f>
-        <v>37.602744999999999</v>
+        <v>34.461680000000001</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">

--- a/manufacture/PurchaseList.xlsx
+++ b/manufacture/PurchaseList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\n-blocks\n-dap\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD0FDED8-F30A-4328-A0F5-7F410E4AA455}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6A3C2BD-9556-4682-9B67-12CC6E4F9D63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PurchaseList" sheetId="1" r:id="rId1"/>
@@ -63,10 +63,10 @@
     <t>n-DAP</t>
   </si>
   <si>
-    <t>11:49</t>
-  </si>
-  <si>
-    <t>20</t>
+    <t>16:31</t>
+  </si>
+  <si>
+    <t>36</t>
   </si>
   <si>
     <t>Designator</t>
@@ -1321,7 +1321,7 @@
         <v>116</v>
       </c>
       <c r="J2" s="10">
-        <v>40996</v>
+        <v>37050</v>
       </c>
       <c r="K2" s="46" t="s">
         <v>119</v>
@@ -1333,18 +1333,18 @@
         <v>3</v>
       </c>
       <c r="N2" s="44">
-        <v>300</v>
+        <v>108</v>
       </c>
       <c r="O2" s="47">
         <f>ROUNDUP(N2*L2,0)</f>
-        <v>300</v>
+        <v>108</v>
       </c>
       <c r="P2" s="30">
-        <v>1.8849999999999999E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="Q2" s="30">
         <f>P2*O2</f>
-        <v>5.6549999999999994</v>
+        <v>2.052</v>
       </c>
       <c r="R2" s="48">
         <f>ROW(R2) - ROW($A$1)</f>
@@ -1393,18 +1393,18 @@
         <v>2</v>
       </c>
       <c r="N3" s="44">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O3" s="47">
         <f t="shared" ref="O3:O22" si="1">ROUNDUP(N3*L3,0)</f>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P3" s="30">
-        <v>3.5909999999999997E-2</v>
+        <v>3.6200000000000003E-2</v>
       </c>
       <c r="Q3" s="30">
         <f t="shared" ref="Q3:Q22" si="2">P3*O3</f>
-        <v>7.1819999999999995</v>
+        <v>3.62</v>
       </c>
       <c r="R3" s="48">
         <f t="shared" ref="R3:R22" si="3">ROW(R3) - ROW($A$1)</f>
@@ -1441,7 +1441,7 @@
         <v>116</v>
       </c>
       <c r="J4" s="10">
-        <v>34052</v>
+        <v>33872</v>
       </c>
       <c r="K4" s="46" t="s">
         <v>121</v>
@@ -1453,18 +1453,18 @@
         <v>2</v>
       </c>
       <c r="N4" s="44">
-        <v>200</v>
+        <v>72</v>
       </c>
       <c r="O4" s="47">
         <f>ROUNDUP(N4*L4,0)</f>
-        <v>200</v>
+        <v>72</v>
       </c>
       <c r="P4" s="30">
-        <v>1.257E-2</v>
+        <v>1.448E-2</v>
       </c>
       <c r="Q4" s="30">
         <f>P4*O4</f>
-        <v>2.5139999999999998</v>
+        <v>1.0425599999999999</v>
       </c>
       <c r="R4" s="48">
         <f>ROW(R4) - ROW($A$1)</f>
@@ -1501,7 +1501,7 @@
         <v>116</v>
       </c>
       <c r="J5" s="10">
-        <v>25442</v>
+        <v>9999</v>
       </c>
       <c r="K5" s="46" t="s">
         <v>122</v>
@@ -1513,18 +1513,18 @@
         <v>2</v>
       </c>
       <c r="N5" s="44">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O5" s="47">
         <f t="shared" ref="O5" si="4">ROUNDUP(N5*L5,0)</f>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P5" s="30">
-        <v>2.8729999999999999E-2</v>
+        <v>2.896E-2</v>
       </c>
       <c r="Q5" s="30">
         <f t="shared" ref="Q5" si="5">P5*O5</f>
-        <v>5.7459999999999996</v>
+        <v>2.8959999999999999</v>
       </c>
       <c r="R5" s="48">
         <f t="shared" si="3"/>
@@ -1559,7 +1559,7 @@
         <v>116</v>
       </c>
       <c r="J6" s="10">
-        <v>68575</v>
+        <v>59043</v>
       </c>
       <c r="K6" s="46" t="s">
         <v>123</v>
@@ -1578,11 +1578,11 @@
         <v>100</v>
       </c>
       <c r="P6" s="30">
-        <v>6.8220000000000003E-2</v>
+        <v>6.8769999999999998E-2</v>
       </c>
       <c r="Q6" s="30">
         <f>P6*O6</f>
-        <v>6.8220000000000001</v>
+        <v>6.8769999999999998</v>
       </c>
       <c r="R6" s="48">
         <f>ROW(R6) - ROW($A$1)</f>
@@ -1617,7 +1617,7 @@
         <v>116</v>
       </c>
       <c r="J7" s="10">
-        <v>43490</v>
+        <v>98272</v>
       </c>
       <c r="K7" s="46" t="s">
         <v>124</v>
@@ -1629,18 +1629,18 @@
         <v>1</v>
       </c>
       <c r="N7" s="44">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="O7" s="47">
         <f t="shared" ref="O7:O9" si="6">ROUNDUP(N7*L7,0)</f>
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="P7" s="30">
-        <v>5.0270000000000002E-2</v>
+        <v>0.10496999999999999</v>
       </c>
       <c r="Q7" s="30">
         <f t="shared" ref="Q7:Q9" si="7">P7*O7</f>
-        <v>5.0270000000000001</v>
+        <v>3.7789199999999998</v>
       </c>
       <c r="R7" s="48">
         <f t="shared" si="3"/>
@@ -1675,7 +1675,7 @@
         <v>116</v>
       </c>
       <c r="J8" s="10">
-        <v>58553</v>
+        <v>57880</v>
       </c>
       <c r="K8" s="46" t="s">
         <v>125</v>
@@ -1687,18 +1687,18 @@
         <v>1</v>
       </c>
       <c r="N8" s="44">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="O8" s="47">
         <f>ROUNDUP(N8*L8,0)</f>
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="P8" s="30">
-        <v>0.10861999999999999</v>
+        <v>0.27146999999999999</v>
       </c>
       <c r="Q8" s="30">
         <f>P8*O8</f>
-        <v>10.862</v>
+        <v>9.7729199999999992</v>
       </c>
       <c r="R8" s="48">
         <f>ROW(R8) - ROW($A$1)</f>
@@ -1735,7 +1735,7 @@
         <v>116</v>
       </c>
       <c r="J9" s="10">
-        <v>115642</v>
+        <v>116092</v>
       </c>
       <c r="K9" s="46" t="s">
         <v>126</v>
@@ -1747,18 +1747,18 @@
         <v>1</v>
       </c>
       <c r="N9" s="44">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="O9" s="47">
         <f t="shared" ref="O9" si="8">ROUNDUP(N9*L9,0)</f>
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="P9" s="30">
-        <v>0.18582000000000001</v>
+        <v>0.34477000000000002</v>
       </c>
       <c r="Q9" s="30">
         <f t="shared" ref="Q9" si="9">P9*O9</f>
-        <v>24.156600000000001</v>
+        <v>16.204190000000001</v>
       </c>
       <c r="R9" s="48">
         <f t="shared" si="3"/>
@@ -1793,7 +1793,7 @@
         <v>116</v>
       </c>
       <c r="J10" s="10">
-        <v>21568</v>
+        <v>21003</v>
       </c>
       <c r="K10" s="46" t="s">
         <v>127</v>
@@ -1805,18 +1805,18 @@
         <v>1</v>
       </c>
       <c r="N10" s="44">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="O10" s="47">
         <f>ROUNDUP(N10*L10,0)</f>
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="P10" s="30">
-        <v>0.61312</v>
+        <v>0.67325000000000002</v>
       </c>
       <c r="Q10" s="30">
         <f>P10*O10</f>
-        <v>61.311999999999998</v>
+        <v>24.237000000000002</v>
       </c>
       <c r="R10" s="48">
         <f>ROW(R10) - ROW($A$1)</f>
@@ -1853,7 +1853,7 @@
         <v>116</v>
       </c>
       <c r="J11" s="10">
-        <v>97989</v>
+        <v>94764</v>
       </c>
       <c r="K11" s="46" t="s">
         <v>128</v>
@@ -1865,18 +1865,18 @@
         <v>1</v>
       </c>
       <c r="N11" s="44">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="O11" s="47">
         <f t="shared" ref="O11:O17" si="10">ROUNDUP(N11*L11,0)</f>
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="P11" s="30">
-        <v>0.10234</v>
+        <v>0.2407</v>
       </c>
       <c r="Q11" s="30">
         <f t="shared" ref="Q11:Q17" si="11">P11*O11</f>
-        <v>10.234</v>
+        <v>8.6652000000000005</v>
       </c>
       <c r="R11" s="48">
         <f t="shared" si="3"/>
@@ -1913,7 +1913,7 @@
         <v>116</v>
       </c>
       <c r="J12" s="10">
-        <v>1868158</v>
+        <v>1836811</v>
       </c>
       <c r="K12" s="46" t="s">
         <v>129</v>
@@ -1925,18 +1925,18 @@
         <v>5</v>
       </c>
       <c r="N12" s="44">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="O12" s="47">
         <f>ROUNDUP(N12*L12,0)</f>
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="P12" s="30">
-        <v>4.4900000000000001E-3</v>
+        <v>1.176E-2</v>
       </c>
       <c r="Q12" s="30">
         <f>P12*O12</f>
-        <v>4.49</v>
+        <v>2.1168</v>
       </c>
       <c r="R12" s="48">
         <f>ROW(R12) - ROW($A$1)</f>
@@ -1973,7 +1973,7 @@
         <v>116</v>
       </c>
       <c r="J13" s="10">
-        <v>69395</v>
+        <v>68380</v>
       </c>
       <c r="K13" s="46" t="s">
         <v>130</v>
@@ -1985,18 +1985,18 @@
         <v>1</v>
       </c>
       <c r="N13" s="44">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="O13" s="47">
         <f t="shared" ref="O13" si="12">ROUNDUP(N13*L13,0)</f>
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="P13" s="30">
-        <v>1.167E-2</v>
+        <v>2.896E-2</v>
       </c>
       <c r="Q13" s="30">
         <f t="shared" ref="Q13" si="13">P13*O13</f>
-        <v>1.167</v>
+        <v>1.0425599999999999</v>
       </c>
       <c r="R13" s="48">
         <f t="shared" si="3"/>
@@ -2033,7 +2033,7 @@
         <v>116</v>
       </c>
       <c r="J14" s="10">
-        <v>84527</v>
+        <v>83930</v>
       </c>
       <c r="K14" s="46" t="s">
         <v>131</v>
@@ -2045,18 +2045,18 @@
         <v>2</v>
       </c>
       <c r="N14" s="44">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O14" s="47">
         <f>ROUNDUP(N14*L14,0)</f>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P14" s="30">
-        <v>1.167E-2</v>
+        <v>1.176E-2</v>
       </c>
       <c r="Q14" s="30">
         <f>P14*O14</f>
-        <v>2.3340000000000001</v>
+        <v>1.1759999999999999</v>
       </c>
       <c r="R14" s="48">
         <f>ROW(R14) - ROW($A$1)</f>
@@ -2093,7 +2093,7 @@
         <v>116</v>
       </c>
       <c r="J15" s="10">
-        <v>135537</v>
+        <v>131942</v>
       </c>
       <c r="K15" s="46" t="s">
         <v>132</v>
@@ -2105,18 +2105,18 @@
         <v>2</v>
       </c>
       <c r="N15" s="44">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O15" s="47">
         <f t="shared" ref="O15:O17" si="14">ROUNDUP(N15*L15,0)</f>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P15" s="30">
-        <v>1.167E-2</v>
+        <v>1.176E-2</v>
       </c>
       <c r="Q15" s="30">
         <f t="shared" ref="Q15:Q17" si="15">P15*O15</f>
-        <v>2.3340000000000001</v>
+        <v>1.1759999999999999</v>
       </c>
       <c r="R15" s="48">
         <f t="shared" si="3"/>
@@ -2153,7 +2153,7 @@
         <v>116</v>
       </c>
       <c r="J16" s="10">
-        <v>99644</v>
+        <v>98927</v>
       </c>
       <c r="K16" s="46" t="s">
         <v>133</v>
@@ -2165,18 +2165,18 @@
         <v>1</v>
       </c>
       <c r="N16" s="44">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="O16" s="47">
         <f>ROUNDUP(N16*L16,0)</f>
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="P16" s="30">
-        <v>1.167E-2</v>
+        <v>2.896E-2</v>
       </c>
       <c r="Q16" s="30">
         <f>P16*O16</f>
-        <v>1.167</v>
+        <v>1.0425599999999999</v>
       </c>
       <c r="R16" s="48">
         <f>ROW(R16) - ROW($A$1)</f>
@@ -2213,7 +2213,7 @@
         <v>116</v>
       </c>
       <c r="J17" s="10">
-        <v>900334</v>
+        <v>891522</v>
       </c>
       <c r="K17" s="46" t="s">
         <v>134</v>
@@ -2225,18 +2225,18 @@
         <v>1</v>
       </c>
       <c r="N17" s="44">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="O17" s="47">
         <f t="shared" ref="O17" si="16">ROUNDUP(N17*L17,0)</f>
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="P17" s="30">
-        <v>5.3899999999999998E-3</v>
+        <v>1.448E-2</v>
       </c>
       <c r="Q17" s="30">
         <f t="shared" ref="Q17" si="17">P17*O17</f>
-        <v>0.53900000000000003</v>
+        <v>0.52127999999999997</v>
       </c>
       <c r="R17" s="48">
         <f t="shared" si="3"/>
@@ -2273,7 +2273,7 @@
         <v>116</v>
       </c>
       <c r="J18" s="10">
-        <v>18062</v>
+        <v>16412</v>
       </c>
       <c r="K18" s="46" t="s">
         <v>135</v>
@@ -2285,18 +2285,18 @@
         <v>1</v>
       </c>
       <c r="N18" s="44">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="O18" s="47">
         <f>ROUNDUP(N18*L18,0)</f>
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="P18" s="30">
-        <v>2.4240000000000001E-2</v>
+        <v>3.5290000000000002E-2</v>
       </c>
       <c r="Q18" s="30">
         <f>P18*O18</f>
-        <v>2.4239999999999999</v>
+        <v>1.27044</v>
       </c>
       <c r="R18" s="48">
         <f>ROW(R18) - ROW($A$1)</f>
@@ -2333,7 +2333,7 @@
         <v>116</v>
       </c>
       <c r="J19" s="10">
-        <v>15015</v>
+        <v>14994</v>
       </c>
       <c r="K19" s="46" t="s">
         <v>136</v>
@@ -2345,18 +2345,18 @@
         <v>2</v>
       </c>
       <c r="N19" s="44">
-        <v>200</v>
+        <v>72</v>
       </c>
       <c r="O19" s="47">
         <f t="shared" ref="O19:O22" si="18">ROUNDUP(N19*L19,0)</f>
-        <v>200</v>
+        <v>72</v>
       </c>
       <c r="P19" s="30">
-        <v>0.48743999999999998</v>
+        <v>0.65244000000000002</v>
       </c>
       <c r="Q19" s="30">
         <f t="shared" ref="Q19:Q22" si="19">P19*O19</f>
-        <v>97.488</v>
+        <v>46.975680000000004</v>
       </c>
       <c r="R19" s="48">
         <f t="shared" si="3"/>
@@ -2403,18 +2403,18 @@
         <v>1</v>
       </c>
       <c r="N20" s="44">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="O20" s="47">
         <f>ROUNDUP(N20*L20,0)</f>
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="P20" s="30">
-        <v>2.98</v>
+        <v>3.47</v>
       </c>
       <c r="Q20" s="30">
         <f>P20*O20</f>
-        <v>298</v>
+        <v>124.92</v>
       </c>
       <c r="R20" s="48">
         <f>ROW(R20) - ROW($A$1)</f>
@@ -2449,7 +2449,7 @@
         <v>116</v>
       </c>
       <c r="J21" s="10">
-        <v>27461</v>
+        <v>27364</v>
       </c>
       <c r="K21" s="46" t="s">
         <v>138</v>
@@ -2461,18 +2461,18 @@
         <v>1</v>
       </c>
       <c r="N21" s="44">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="O21" s="47">
         <f t="shared" ref="O21" si="20">ROUNDUP(N21*L21,0)</f>
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="P21" s="30">
-        <v>0.38779999999999998</v>
+        <v>0.60629</v>
       </c>
       <c r="Q21" s="30">
         <f t="shared" ref="Q21" si="21">P21*O21</f>
-        <v>38.78</v>
+        <v>21.826439999999998</v>
       </c>
       <c r="R21" s="48">
         <f t="shared" si="3"/>
@@ -2509,7 +2509,7 @@
         <v>116</v>
       </c>
       <c r="J22" s="10">
-        <v>930</v>
+        <v>530</v>
       </c>
       <c r="K22" s="46" t="s">
         <v>139</v>
@@ -2521,18 +2521,18 @@
         <v>1</v>
       </c>
       <c r="N22" s="44">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="O22" s="47">
         <f>ROUNDUP(N22*L22,0)</f>
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="P22" s="30">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="Q22" s="30">
         <f>P22*O22</f>
-        <v>101</v>
+        <v>44.28</v>
       </c>
       <c r="R22" s="48">
         <f>ROW(R22) - ROW($A$1)</f>
@@ -2579,7 +2579,7 @@
       <c r="J24" s="14"/>
       <c r="K24" s="34">
         <f ca="1">NOW()</f>
-        <v>43844.492883564817</v>
+        <v>43854.688447569446</v>
       </c>
       <c r="L24" s="40"/>
       <c r="M24" s="15"/>
@@ -2590,11 +2590,11 @@
       </c>
       <c r="Q24" s="36">
         <f>SUM(Q2:Q22)</f>
-        <v>689.23360000000002</v>
+        <v>325.49355000000003</v>
       </c>
       <c r="R24" s="50">
         <f>Q24/N25</f>
-        <v>34.461680000000001</v>
+        <v>9.0414875000000006</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
